--- a/biology/Zoologie/Enteromius/Enteromius.xlsx
+++ b/biology/Zoologie/Enteromius/Enteromius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enteromius est un genre de poissons de la famille des cyprinés d'Afrique tropicale anciennement classés dans le genre Barbus.
 Les études génétiques étant encore en cours (2023) des changements sont à attendre.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (20 mars 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (20 mars 2023) :
 Enteromius ablabes (Bleeker, 1863)
 Enteromius aboinensis (Boulenger, 1911)
 Enteromius afrohamiltoni (Crass, 1960)
@@ -754,10 +768,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre Enteromius a été créé en 1867 par le paléontologue américain Edward Drinker Cope (1840-1897)[2] avec pour espèce type Enteromius potamogalis[3].
-Enteromius a pour synonymes[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le genre Enteromius a été créé en 1867 par le paléontologue américain Edward Drinker Cope (1840-1897) avec pour espèce type Enteromius potamogalis.
+Enteromius a pour synonymes :
 Beirabarbus Herre, 1936
 Mannichthys Schultz, 1942</t>
         </is>
@@ -787,7 +803,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Edward D. Cope, « Supplement on some new species of American and African fishes », Transactions of the American Philosophical Society, vol. 13, no 3,‎ 1867, p. 400-407 (ISSN 0065-9746 et 2325-9264, OCLC 2382293, lire en ligne)</t>
         </is>
